--- a/DataFiles/Data.xlsx
+++ b/DataFiles/Data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,19 +24,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>USERNAME</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Kapil</t>
+  </si>
+  <si>
+    <t>Madan</t>
+  </si>
+  <si>
+    <t>7876765432</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,28 +61,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -78,43 +78,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,29 +367,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
